--- a/output/prices.xlsx
+++ b/output/prices.xlsx
@@ -680,7 +680,11 @@
           <t>620,0</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Klekt/</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">

--- a/output/prices.xlsx
+++ b/output/prices.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hold" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expected" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -39,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -47,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -437,297 +423,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Product_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>StockX_payout</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Alias_payout</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Best_site</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Best_price</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Additional_sites</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>UGG Classic Ultra Mini Platform Driftwood (W)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1135092-DRI</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7W</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>720,0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-60,0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>StockX</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>720,0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Restocks/</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>adidas Yeezy Slide Flax</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FZ5896</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>340,0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>300,0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>StockX</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>340,0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Product_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>StockX_payout</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Alias_payout</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Best_site</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Best_price</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Additional_sites</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>554724-174</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>620,0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>550,0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>StockX</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>620,0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Klekt/</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>New Balance 550 White Grey</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BB550PB1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>StockX</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/output/prices.xlsx
+++ b/output/prices.xlsx
@@ -1,40 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dratw\Documents\codes\priceChecker\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD28FC3-B2FD-4E97-AF31-CF5D5E819EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="hold" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+  <si>
+    <t>Product_name</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>StockX_payout</t>
+  </si>
+  <si>
+    <t>Alias_payout</t>
+  </si>
+  <si>
+    <t>Best_site</t>
+  </si>
+  <si>
+    <t>Best_price</t>
+  </si>
+  <si>
+    <t>Additional_sites</t>
+  </si>
+  <si>
+    <t>UGG Classic Ultra Mini Platform Driftwood (W)</t>
+  </si>
+  <si>
+    <t>1135092-DRI</t>
+  </si>
+  <si>
+    <t>7W</t>
+  </si>
+  <si>
+    <t>700,0</t>
+  </si>
+  <si>
+    <t>-60,0</t>
+  </si>
+  <si>
+    <t>StockX</t>
+  </si>
+  <si>
+    <t>adidas Yeezy Slide Flax</t>
+  </si>
+  <si>
+    <t>FZ5896</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>350,0</t>
+  </si>
+  <si>
+    <t>320,0</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Terry Swoosh (W)</t>
+  </si>
+  <si>
+    <t>DZ4706-200</t>
+  </si>
+  <si>
+    <t>10W</t>
+  </si>
+  <si>
+    <t>500,0</t>
+  </si>
+  <si>
+    <t>450,0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,85 +129,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,19 +454,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/output/prices.xlsx
+++ b/output/prices.xlsx
@@ -1,127 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dratw\Documents\codes\priceChecker\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD28FC3-B2FD-4E97-AF31-CF5D5E819EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="hold" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
-  <si>
-    <t>Product_name</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>StockX_payout</t>
-  </si>
-  <si>
-    <t>Alias_payout</t>
-  </si>
-  <si>
-    <t>Best_site</t>
-  </si>
-  <si>
-    <t>Best_price</t>
-  </si>
-  <si>
-    <t>Additional_sites</t>
-  </si>
-  <si>
-    <t>UGG Classic Ultra Mini Platform Driftwood (W)</t>
-  </si>
-  <si>
-    <t>1135092-DRI</t>
-  </si>
-  <si>
-    <t>7W</t>
-  </si>
-  <si>
-    <t>700,0</t>
-  </si>
-  <si>
-    <t>-60,0</t>
-  </si>
-  <si>
-    <t>StockX</t>
-  </si>
-  <si>
-    <t>adidas Yeezy Slide Flax</t>
-  </si>
-  <si>
-    <t>FZ5896</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>350,0</t>
-  </si>
-  <si>
-    <t>320,0</t>
-  </si>
-  <si>
-    <t>Nike Dunk Low Terry Swoosh (W)</t>
-  </si>
-  <si>
-    <t>DZ4706-200</t>
-  </si>
-  <si>
-    <t>10W</t>
-  </si>
-  <si>
-    <t>500,0</t>
-  </si>
-  <si>
-    <t>450,0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -129,44 +42,85 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -454,143 +408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/output/prices.xlsx
+++ b/output/prices.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="flip" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hold" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expected" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +20,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,4 +438,6724 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>StockX_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Alias_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Best_site</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Additional_sites</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Flax</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FZ5896</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>350,0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>300,0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>350,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>280,0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>280,0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>280,0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Aluminum (W)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DC0774-141</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>670,0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>620,0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>670,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Aluminum (W)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DC0774-141</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>630,0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>680,0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>680,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Bred Toe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>553558-612</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Green Toe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>553558-371</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1040,0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>920,0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1040,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jordan 1 Retro High OG Gorge Green</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DZ5485-303</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1060,0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1160,0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1160,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jordan 1 Retro Low OG SP Travis Scott Black Phantom (TD)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DO5441-001</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7C</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>400,0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>430,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jordan 4 Retro Seafoam (W)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AQ9129-103</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1160,0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1130,0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1160,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jordan 4 Retro Seafoam (W)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AQ9129-103</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.5W</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1180,0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1230,0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1230,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Grey Dark Grey</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BB550WTG</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Panda Black White (2021)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DD1399-105</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Panda Black White (2021)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DD1399-105</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Panda Black White (2021)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DD1399-105</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Panda Black White (2021)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DD1399-105</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Championship White Red</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DD1399-106</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>720,0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>680,0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>720,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Championship White Red</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DD1399-106</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10W</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10W</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10W</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10W</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.5W</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.5W</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.5W</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.5W</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.5W</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12W</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>650,0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>730,0</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>730,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12W</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>650,0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>730,0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>730,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>630,0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>630,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>630,0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>630,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>630,0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>630,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>630,0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>630,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>680,0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>680,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10W</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>820,0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>740,0</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>820,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>10W</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>820,0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>740,0</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>820,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Terry Swoosh (W)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DZ4706-200</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.5W</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>650,0</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>650,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>adidas Forum Low The Grinch</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>HP6772</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>390,0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>StockX_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Alias_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Best_site</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Additional_sites</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.5W</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DX5930-001</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Rose Whisper (W)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DD1503-118</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Grey</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>BB550PB1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Grey</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>BB550PB1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>StockX_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Alias_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Best_site</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Additional_sites</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Active Fuchsia (GS)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FJ0704-100</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.5Y</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Active Fuchsia (GS)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FJ0704-100</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4Y</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Active Fuchsia (GS)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FJ0704-100</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Active Fuchsia (GS)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FJ0704-100</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6Y</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Active Fuchsia (GS)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FJ0704-100</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.5Y</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid Olive Toe (W)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DV0427-301</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>650,0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>554724-174</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>554724-174</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>554724-174</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jordan 1 Retro High 85 Black White (2023)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BQ4422-001</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1390,0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1460,0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1460,0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jordan 11 Retro Cherry (2022)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CT8012-116</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>980,0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>920,0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>980,0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Orewood Brown Sashiko</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DV0834-100</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Peach Cream (W)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DD1503-801</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12W</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DX5930-001</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DX5930-001</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DX5930-001</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10W</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/output/prices.xlsx
+++ b/output/prices.xlsx
@@ -8,7 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hold" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="flip" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hold" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expected" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -444,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,27 +502,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adidas Yeezy Slide Resin (2022)</t>
+          <t>Jordan 1 Low Aluminum (W)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FZ5904</t>
+          <t>DC0774-141</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9W</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>330,0</t>
+          <t>620,0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>350,0</t>
+          <t>670,0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -530,10 +532,9 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>350,0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>670,0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -541,40 +542,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>adidas Yeezy Slide Resin (2022)</t>
+          <t>Jordan 1 Low Bred Toe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FZ5904</t>
+          <t>553558-612</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>330,0</t>
+          <t>530,0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>350,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>350,0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>530,0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -582,40 +582,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>adidas Yeezy Slide Resin (2022)</t>
+          <t>Jordan 1 Low Green Toe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FZ5904</t>
+          <t>553558-371</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>330,0</t>
+          <t>990,0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>350,0</t>
+          <t>790,0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>350,0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>990,0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -623,40 +622,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>adidas Yeezy Slide Resin (2022)</t>
+          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FZ5904</t>
+          <t>554724-174</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>330,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>350,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>350,0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>500,0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -664,40 +662,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>adidas Yeezy Slide Resin (2022)</t>
+          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FZ5904</t>
+          <t>554724-174</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>330,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>350,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>350,0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>500,0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -705,27 +702,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
+          <t>Jordan 1 Retro High 85 Black White (2023)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>554724-174</t>
+          <t>BQ4422-001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>1400,0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>1390,0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -735,10 +732,9 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>1400,0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -746,40 +742,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
+          <t>Jordan 1 Retro High OG Gorge Green</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>554724-174</t>
+          <t>DZ5485-303</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>1040,0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>1140,0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>1140,0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -787,40 +782,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jordan 1 Retro High 85 Black White (2023)</t>
+          <t>Jordan 4 Retro Seafoam (W)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BQ4422-001</t>
+          <t>AQ9129-103</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>10.5W</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1340,0</t>
+          <t>1130,0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1420,0</t>
+          <t>1080,0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1420,0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>1130,0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -828,27 +822,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jordan 11 Retro Cherry (2022)</t>
+          <t>New Balance 550 White Grey Dark Grey</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CT8012-116</t>
+          <t>BB550WTG</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>920,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>910,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -858,10 +852,9 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>920,0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>520,0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -869,40 +862,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Active Fuchsia (GS)</t>
+          <t>Nike Dunk High Championship White Red</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FJ0704-100</t>
+          <t>DD1399-106</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.5Y</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>400,0</t>
+          <t>680,0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>380,0</t>
+          <t>680,0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>400,0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>680,0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -910,40 +902,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Active Fuchsia (GS)</t>
+          <t>Nike Dunk High Championship White Red</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FJ0704-100</t>
+          <t>DD1399-106</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4Y</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>380,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>380,0</t>
+          <t>510,0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>380,0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>550,0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -961,30 +952,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5Y</t>
+          <t>6Y</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>400,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>450,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>450,0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>470,0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -992,40 +982,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Active Fuchsia (GS)</t>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FJ0704-100</t>
+          <t>DV4024-002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6Y</t>
+          <t>6.5W</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>450,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>470,0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>550,0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1033,40 +1022,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Active Fuchsia (GS)</t>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FJ0704-100</t>
+          <t>DV4024-002</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.5Y</t>
+          <t>6.5W</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>470,0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>550,0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1084,30 +1072,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6W</t>
+          <t>6.5W</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>550,0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1115,40 +1102,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DV4024-002</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.5W</t>
+          <t>11W</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>680,0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>550,0</t>
+          <t>590,0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>550,0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>680,0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1156,40 +1142,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DV4024-002</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.5W</t>
+          <t>11W</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>680,0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>550,0</t>
+          <t>590,0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>550,0</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>680,0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1197,40 +1182,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DV4024-002</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6.5W</t>
+          <t>11W</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>680,0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>550,0</t>
+          <t>590,0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>550,0</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>680,0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1238,27 +1222,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Light Orewood Brown Sashiko</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DV0834-100</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11W</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>680,0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>590,0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1268,10 +1252,9 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>680,0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1279,27 +1262,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6W</t>
+          <t>11W</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>680,0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>590,0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1309,10 +1292,9 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>500,0</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>680,0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1320,27 +1302,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6.5W</t>
+          <t>11W</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>680,0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>450,0</t>
+          <t>590,0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1350,10 +1332,9 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>470,0</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>680,0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1361,40 +1342,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>11W</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>680,0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>590,0</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>680,0</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1402,40 +1382,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>12W</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>690,0</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>630,0</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>690,0</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1443,40 +1422,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>12W</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>690,0</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>630,0</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>690,0</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1484,40 +1462,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DX3382-400</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>7Y</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>430,0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>460,0</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1525,27 +1502,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DX3382-400</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>7Y</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>430,0</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1555,10 +1532,9 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>460,0</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1566,27 +1542,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DX3382-400</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>7Y</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>430,0</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1596,10 +1572,9 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>460,0</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1607,27 +1582,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DX3382-400</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>7Y</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>430,0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1637,10 +1612,9 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>460,0</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1658,30 +1632,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>11W</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>550,0</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1689,27 +1662,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Peach Cream (W)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DD1503-801</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>12W</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>670,0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1719,10 +1692,9 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>670,0</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1730,17 +1702,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DD1391-100</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1763,7 +1735,6 @@
           <t>510,0</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1771,27 +1742,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>580,0</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1801,10 +1772,9 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>580,0</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1812,27 +1782,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>580,0</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1842,10 +1812,9 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>580,0</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1853,27 +1822,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>580,0</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1883,10 +1852,9 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>580,0</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1894,27 +1862,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>580,0</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1924,10 +1892,9 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>580,0</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1935,27 +1902,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>630,0</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1965,10 +1932,9 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>630,0</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1976,27 +1942,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>630,0</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2006,10 +1972,9 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>630,0</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2017,27 +1982,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>9W</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>620,0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>580,0</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2047,10 +2012,9 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>620,0</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2058,40 +2022,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>10W</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>860,0</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>910,0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>910,0</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2099,40 +2062,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DD1503-109</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>6.5W</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>420,0</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>430,0</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>430,0</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2140,40 +2102,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DD1503-109</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>6.5W</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>420,0</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>430,0</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>430,0</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2181,40 +2142,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DD1503-109</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>6.5W</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>420,0</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>430,0</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>430,0</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2222,40 +2182,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>adidas Forum Low The Grinch</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>HP6772</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>380,0</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>380,0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>380,0</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2263,22 +2222,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>New Balance 550 White Grey</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>BB550PB1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2288,15 +2247,14 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>490,0</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2304,9 +2262,1870 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>New Balance 550 White Grey</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BB550PB1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>StockX_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Alias_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Best_site</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Additional_sites</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Stealth French Blue (W)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DC0774-042</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Stealth French Blue (W)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DC0774-042</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Stealth French Blue (W)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DC0774-042</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Stealth French Blue (W)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DC0774-042</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid Olive Toe (W)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DV0427-301</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>620,0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>670,0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>670,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid Olive Toe (W)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DV0427-301</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>620,0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>700,0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>700,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jordan 11 Retro Cherry (2022)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CT8012-116</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>920,0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>900,0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>920,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>New Balance 550 Sea Salt Macadamia Nut (W)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>BBW550PA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>770,0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>960,0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>960,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Active Fuchsia (GS)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FJ0704-100</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.5Y</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>390,0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>350,0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>390,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Active Fuchsia (GS)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FJ0704-100</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4Y</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>400,0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>400,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Orewood Brown Sashiko</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DV0834-100</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>700,0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>700,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>DD1873-102</t>
@@ -2314,30 +4133,29 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>8W</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
           <t>490,0</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>StockX</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2355,30 +4173,29 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>8W</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
           <t>490,0</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>StockX</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2396,30 +4213,29 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>8W</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
           <t>490,0</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>StockX</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2437,30 +4253,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>8W</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
           <t>490,0</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>StockX</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2478,30 +4293,29 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>440,0</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>460,0</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2519,30 +4333,29 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>440,0</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>460,0</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2560,30 +4373,29 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>440,0</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>460,0</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2601,12 +4413,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>8W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>440,0</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2616,15 +4428,14 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>460,0</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2642,12 +4453,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>440,0</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2657,15 +4468,14 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>460,0</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2683,12 +4493,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>8W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>440,0</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2698,15 +4508,14 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>460,0</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2724,12 +4533,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>440,0</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2739,15 +4548,14 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>460,0</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2770,7 +4578,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>440,0</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2780,15 +4588,14 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>460,0</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2811,7 +4618,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>440,0</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2821,15 +4628,14 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>460,0</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2852,7 +4658,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>440,0</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2862,15 +4668,14 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>460,0</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2888,30 +4693,29 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>10.5W</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t>520,0</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2919,12 +4723,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DX5930-001</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2934,12 +4738,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>510,0</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2949,10 +4753,9 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>540,0</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2960,12 +4763,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DX5930-001</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2975,12 +4778,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>510,0</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2990,10 +4793,9 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>540,0</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3001,40 +4803,39 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DX5930-001</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>9.5W</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>470,0</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3042,17 +4843,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DX5930-001</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>10W</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3062,20 +4863,19 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>490,0</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3083,40 +4883,39 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Rose Whisper (W)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DD1503-118</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>500,0</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3124,27 +4923,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>6.5W</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>620,0</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3154,10 +4953,9 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
+          <t>620,0</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3165,40 +4963,39 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10.5W</t>
+          <t>7.5W</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>580,0</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>520,0</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>580,0</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3206,40 +5003,39 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Peach Cream (W)</t>
+          <t>Nike Dunk Low UCLA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DD1503-801</t>
+          <t>DD1391-402</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>12W</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>560,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>550,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>560,0</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>520,0</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3247,27 +5043,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
+          <t>Nike Dunk Low UCLA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>DX5930-001</t>
+          <t>DD1391-402</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3277,10 +5073,9 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>520,0</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3288,27 +5083,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
+          <t>Nike Dunk Low UCLA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>DX5930-001</t>
+          <t>DD1391-402</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3318,10 +5113,9 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>520,0</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3329,40 +5123,39 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
+          <t>Nike Dunk Low UCLA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>DX5930-001</t>
+          <t>DD1391-402</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>9.5W</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>450,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
+          <t>520,0</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3370,40 +5163,39 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
+          <t>Nike Dunk Low UCLA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DX5930-001</t>
+          <t>DD1391-402</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10W</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>520,0</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3411,22 +5203,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+          <t>Nike Dunk Low UCLA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>DD1391-100</t>
+          <t>DD1391-402</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>560,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3436,15 +5228,14 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>560,0</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
+          <t>520,0</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3452,22 +5243,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Rose Whisper (W)</t>
+          <t>Nike Dunk Low UCLA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>DD1503-118</t>
+          <t>DD1391-402</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3477,7 +5268,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3485,7 +5276,6 @@
           <t>520,0</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3508,25 +5298,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>520,0</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3549,25 +5338,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
+          <t>520,0</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3590,25 +5378,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t>520,0</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3631,394 +5418,454 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>StockX_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Alias_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Best_site</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Additional_sites</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>390,0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6Y</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>460,0</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.5Y</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>554724-174</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>630,0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Alias</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low UCLA</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>DD1391-402</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>460,0</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>630,0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Stealth French Blue (W)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DC0774-042</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Orewood Brown Sashiko</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DV0834-100</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>640,0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>640,0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid Olive Toe (W)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DV0427-301</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>620,0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>670,0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Alias</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low UCLA</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>DD1391-402</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>460,0</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low UCLA</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>DD1391-402</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>460,0</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low UCLA</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>DD1391-402</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>460,0</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low UCLA</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>DD1391-402</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>460,0</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low UCLA</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>DD1391-402</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>460,0</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low UCLA</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>DD1391-402</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>460,0</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>New Balance 550 White Grey</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>BB550PB1</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>500,0</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>450,0</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>670,0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>620,0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>StockX</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>500,0</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>New Balance 550 White Grey</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>BB550PB1</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>500,0</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>450,0</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>StockX</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>500,0</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>620,0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/prices.xlsx
+++ b/output/prices.xlsx
@@ -10,7 +10,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="flip" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hold" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expected" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +516,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>620,0</t>
+          <t>590,0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -557,7 +556,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>530,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -572,7 +571,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>530,0</t>
+          <t>550,0</t>
         </is>
       </c>
     </row>
@@ -597,22 +596,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>990,0</t>
+          <t>900,0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>790,0</t>
+          <t>910,0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>990,0</t>
+          <t>910,0</t>
         </is>
       </c>
     </row>
@@ -622,27 +621,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
+          <t>Jordan 1 Low Stealth French Blue (W)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>554724-174</t>
+          <t>DC0774-042</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8W</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>510,0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -652,7 +651,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>550,0</t>
         </is>
       </c>
     </row>
@@ -662,27 +661,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
+          <t>Jordan 1 Low Stealth French Blue (W)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>554724-174</t>
+          <t>DC0774-042</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9.5W</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>570,0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -692,7 +691,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>570,0</t>
         </is>
       </c>
     </row>
@@ -702,37 +701,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jordan 1 Retro High 85 Black White (2023)</t>
+          <t>Jordan 1 Low Stealth French Blue (W)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BQ4422-001</t>
+          <t>DC0774-042</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11W</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1400,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1390,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1400,0</t>
+          <t>560,0</t>
         </is>
       </c>
     </row>
@@ -742,27 +741,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jordan 1 Retro High OG Gorge Green</t>
+          <t>Jordan 1 Mid Olive Toe (W)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DZ5485-303</t>
+          <t>DV0427-301</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>7.5W</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1040,0</t>
+          <t>610,0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1140,0</t>
+          <t>680,0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -772,7 +771,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1140,0</t>
+          <t>680,0</t>
         </is>
       </c>
     </row>
@@ -782,37 +781,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jordan 4 Retro Seafoam (W)</t>
+          <t>Jordan 1 Retro High 85 Black White (2023)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AQ9129-103</t>
+          <t>BQ4422-001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.5W</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1130,0</t>
+          <t>1240,0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1080,0</t>
+          <t>1370,0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1130,0</t>
+          <t>1370,0</t>
         </is>
       </c>
     </row>
@@ -822,37 +821,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>New Balance 550 White Grey Dark Grey</t>
+          <t>Jordan 1 Retro High OG Gorge Green</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BB550WTG</t>
+          <t>DZ5485-303</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>1030,0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>1140,0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>1140,0</t>
         </is>
       </c>
     </row>
@@ -862,37 +861,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nike Dunk High Championship White Red</t>
+          <t>Jordan 4 Retro Seafoam (W)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DD1399-106</t>
+          <t>AQ9129-103</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10.5W</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>1070,0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>1060,0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>1070,0</t>
         </is>
       </c>
     </row>
@@ -902,27 +901,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nike Dunk High Championship White Red</t>
+          <t>New Balance 550 Sea Salt Macadamia Nut (W)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DD1399-106</t>
+          <t>BBW550PA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>550,0</t>
+          <t>720,0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>660,0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -932,7 +931,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>550,0</t>
+          <t>720,0</t>
         </is>
       </c>
     </row>
@@ -942,27 +941,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Active Fuchsia (GS)</t>
+          <t>Nike Dunk High Championship White Red</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FJ0704-100</t>
+          <t>DD1399-106</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6Y</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -972,7 +971,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>550,0</t>
         </is>
       </c>
     </row>
@@ -997,7 +996,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1037,7 +1036,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1077,7 +1076,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1117,22 +1116,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>670,0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>590,0</t>
+          <t>700,0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>700,0</t>
         </is>
       </c>
     </row>
@@ -1157,22 +1156,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>670,0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>590,0</t>
+          <t>700,0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>700,0</t>
         </is>
       </c>
     </row>
@@ -1197,22 +1196,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>670,0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>590,0</t>
+          <t>700,0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>700,0</t>
         </is>
       </c>
     </row>
@@ -1237,22 +1236,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>670,0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>590,0</t>
+          <t>700,0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>700,0</t>
         </is>
       </c>
     </row>
@@ -1277,22 +1276,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>670,0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>590,0</t>
+          <t>700,0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>700,0</t>
         </is>
       </c>
     </row>
@@ -1317,22 +1316,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>670,0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>590,0</t>
+          <t>700,0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>700,0</t>
         </is>
       </c>
     </row>
@@ -1357,22 +1356,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>670,0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>590,0</t>
+          <t>700,0</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>680,0</t>
+          <t>700,0</t>
         </is>
       </c>
     </row>
@@ -1397,17 +1396,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>680,0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>690,0</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>630,0</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1437,17 +1436,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>680,0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>690,0</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>630,0</t>
-        </is>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1462,37 +1461,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+          <t>Nike Dunk Low Light Orewood Brown Sashiko</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DX3382-400</t>
+          <t>DV0834-100</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7Y</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>430,0</t>
+          <t>620,0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>620,0</t>
         </is>
       </c>
     </row>
@@ -1622,37 +1621,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DX3382-400</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11W</t>
+          <t>7Y</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>550,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>550,0</t>
+          <t>430,0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>550,0</t>
+          <t>460,0</t>
         </is>
       </c>
     </row>
@@ -1662,37 +1661,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Peach Cream (W)</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DD1503-801</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12W</t>
+          <t>11W</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>670,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>540,0</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>StockX</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>670,0</t>
         </is>
       </c>
     </row>
@@ -1702,27 +1701,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+          <t>Nike Dunk Low Peach Cream (W)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DD1391-100</t>
+          <t>DD1503-801</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12W</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>650,0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1732,7 +1731,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>650,0</t>
         </is>
       </c>
     </row>
@@ -1742,37 +1741,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DO9457-100</t>
+          <t>DX5930-001</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>580,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>560,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>580,0</t>
+          <t>520,0</t>
         </is>
       </c>
     </row>
@@ -1782,37 +1781,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DO9457-100</t>
+          <t>DX5930-001</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>580,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>560,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>580,0</t>
+          <t>520,0</t>
         </is>
       </c>
     </row>
@@ -1832,27 +1831,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>580,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>560,0</t>
+          <t>670,0</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>580,0</t>
+          <t>670,0</t>
         </is>
       </c>
     </row>
@@ -1872,27 +1871,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>580,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>560,0</t>
+          <t>670,0</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>580,0</t>
+          <t>670,0</t>
         </is>
       </c>
     </row>
@@ -1912,27 +1911,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>9W</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>630,0</t>
+          <t>530,0</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>550,0</t>
+          <t>570,0</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>630,0</t>
+          <t>570,0</t>
         </is>
       </c>
     </row>
@@ -1952,27 +1951,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>10W</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>630,0</t>
+          <t>610,0</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>550,0</t>
+          <t>910,0</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>630,0</t>
+          <t>910,0</t>
         </is>
       </c>
     </row>
@@ -1982,37 +1981,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+          <t>Nike Dunk Low Terry Swoosh (W)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DO9457-100</t>
+          <t>DZ4706-200</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>9W</t>
+          <t>11.5W</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>620,0</t>
+          <t>720,0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>580,0</t>
+          <t>830,0</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>620,0</t>
+          <t>830,0</t>
         </is>
       </c>
     </row>
@@ -2022,37 +2021,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DO9457-100</t>
+          <t>DD1503-109</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10W</t>
+          <t>6.5W</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>860,0</t>
+          <t>430,0</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>910,0</t>
+          <t>430,0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>910,0</t>
+          <t>430,0</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2076,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>420,0</t>
+          <t>430,0</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2087,7 +2086,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2102,27 +2101,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Triple White (2021) (W)</t>
+          <t>Nike Dunk Low UCLA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DD1503-109</t>
+          <t>DD1391-402</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6.5W</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>420,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>430,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2132,7 +2131,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>430,0</t>
+          <t>520,0</t>
         </is>
       </c>
     </row>
@@ -2142,27 +2141,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Triple White (2021) (W)</t>
+          <t>Nike Dunk Low UCLA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DD1503-109</t>
+          <t>DD1391-402</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.5W</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>420,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>430,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2172,7 +2171,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>430,0</t>
+          <t>520,0</t>
         </is>
       </c>
     </row>
@@ -2182,37 +2181,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>adidas Forum Low The Grinch</t>
+          <t>Nike Dunk Low UCLA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HP6772</t>
+          <t>DD1391-402</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>380,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>380,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>380,0</t>
+          <t>520,0</t>
         </is>
       </c>
     </row>
@@ -2222,27 +2221,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>New Balance 550 White Grey</t>
+          <t>Nike Dunk Low UCLA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BB550PB1</t>
+          <t>DD1391-402</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2252,7 +2251,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>520,0</t>
         </is>
       </c>
     </row>
@@ -2262,37 +2261,157 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>New Balance 550 White Grey</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>BB550PB1</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>480,0</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>490,0</t>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Grey</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BB550PB1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>480,0</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2363,39 +2482,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jordan 1 Low Stealth French Blue (W)</t>
+          <t>adidas Handball Spezial Black Gum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC0774-042</t>
+          <t>DB3021</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8W</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>560,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>560,0</t>
-        </is>
-      </c>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2403,39 +2523,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jordan 1 Low Stealth French Blue (W)</t>
+          <t>adidas Handball Spezial Black Gum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC0774-042</t>
+          <t>DB3021</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9W</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>450,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2443,39 +2564,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jordan 1 Low Stealth French Blue (W)</t>
+          <t>adidas Handball Spezial Black Gum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC0774-042</t>
+          <t>DB3021</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.5W</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>610,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>560,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>610,0</t>
-        </is>
-      </c>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2483,39 +2605,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jordan 1 Low Stealth French Blue (W)</t>
+          <t>adidas Handball Spezial Black Gum</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC0774-042</t>
+          <t>DB3021</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11W</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>580,0</t>
+          <t>430,0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>580,0</t>
+          <t>370,0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>580,0</t>
-        </is>
-      </c>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2523,39 +2646,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jordan 1 Mid Olive Toe (W)</t>
+          <t>adidas Handball Spezial Black Gum</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DV0427-301</t>
+          <t>DB3021</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>620,0</t>
+          <t>430,0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>670,0</t>
+          <t>370,0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>670,0</t>
-        </is>
-      </c>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2563,39 +2687,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jordan 1 Mid Olive Toe (W)</t>
+          <t>adidas Handball Spezial Black Gum</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DV0427-301</t>
+          <t>DB3021</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>620,0</t>
+          <t>430,0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>700,0</t>
+          <t>370,0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>700,0</t>
-        </is>
-      </c>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2603,39 +2728,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jordan 11 Retro Cherry (2022)</t>
+          <t>Jordan 1 Low Stealth French Blue (W)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CT8012-116</t>
+          <t>DC0774-042</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>11W</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>920,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>900,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>920,0</t>
-        </is>
-      </c>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2643,12 +2769,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>New Balance 550 Sea Salt Macadamia Nut (W)</t>
+          <t>Jordan 1 Mid Olive Toe (W)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BBW550PA</t>
+          <t>DV0427-301</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2658,12 +2784,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>770,0</t>
+          <t>610,0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>960,0</t>
+          <t>820,0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2673,9 +2799,10 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>960,0</t>
-        </is>
-      </c>
+          <t>820,0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2683,39 +2810,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Active Fuchsia (GS)</t>
+          <t>Jordan 1 Mid Olive Toe (W)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FJ0704-100</t>
+          <t>DV0427-301</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.5Y</t>
+          <t>9.5W</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>390,0</t>
+          <t>660,0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>350,0</t>
+          <t>680,0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>390,0</t>
-        </is>
-      </c>
+          <t>680,0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2723,39 +2851,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Active Fuchsia (GS)</t>
+          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FJ0704-100</t>
+          <t>554724-174</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4Y</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>400,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>380,0</t>
+          <t>510,0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>400,0</t>
-        </is>
-      </c>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2763,39 +2892,40 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+          <t>Jordan 11 Retro Cherry (2022)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DV4024-002</t>
+          <t>CT8012-116</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6W</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>880,0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>910,0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
+          <t>910,0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2803,12 +2933,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Light Orewood Brown Sashiko</t>
+          <t>Nike Dunk High Panda Black White (2021)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DV0834-100</t>
+          <t>DD1399-105</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2818,24 +2948,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>700,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>610,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>700,0</t>
-        </is>
-      </c>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2843,39 +2974,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk High Panda Black White (2021)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DD1399-105</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6W</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2883,17 +3015,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk High Panda Black White (2021)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DD1399-105</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.5W</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2903,7 +3035,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2913,9 +3045,10 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>460,0</t>
-        </is>
-      </c>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2923,39 +3056,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Active Fuchsia (GS)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>FJ0704-100</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>3.5Y</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>380,0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>380,0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2963,27 +3097,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Active Fuchsia (GS)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>FJ0704-100</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>4Y</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>400,0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>380,0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2993,9 +3127,10 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
+          <t>400,0</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3003,39 +3138,40 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Active Fuchsia (GS)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>FJ0704-100</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>6Y</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>StockX/Alias</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3043,27 +3179,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DV4024-002</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>6W</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3073,9 +3209,10 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>510,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3083,39 +3220,40 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Light Orewood Brown Sashiko</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DV0834-100</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>640,0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>640,0</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -3123,39 +3261,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Light Orewood Brown Sashiko</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DV0834-100</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>640,0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>640,0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3163,39 +3302,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+          <t>Nike Dunk Low Light Orewood Brown Sashiko</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DD1873-102</t>
+          <t>DV0834-100</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>530,0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3213,29 +3353,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>6W</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3253,29 +3394,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>6.5W</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>480,0</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>480,0</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>StockX/Alias</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>480,0</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3293,29 +3435,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3333,29 +3476,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3373,29 +3517,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3413,29 +3558,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3458,24 +3604,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3498,24 +3645,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3538,24 +3686,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3578,24 +3727,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3618,24 +3768,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3658,24 +3809,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3698,24 +3850,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3738,24 +3891,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3778,24 +3932,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3818,24 +3973,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3858,24 +4014,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3898,24 +4055,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3938,24 +4096,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3978,24 +4137,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4018,24 +4178,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4058,24 +4219,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4098,24 +4260,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>480,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4133,7 +4296,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8W</t>
+          <t>7.5W</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4143,7 +4306,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4156,6 +4319,7 @@
           <t>490,0</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4173,7 +4337,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8W</t>
+          <t>7.5W</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4183,7 +4347,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4196,6 +4360,7 @@
           <t>490,0</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4213,7 +4378,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8W</t>
+          <t>7.5W</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4223,7 +4388,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4236,6 +4401,7 @@
           <t>490,0</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4253,7 +4419,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8W</t>
+          <t>7.5W</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4263,7 +4429,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4276,6 +4442,7 @@
           <t>490,0</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4293,12 +4460,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>7.5W</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4308,14 +4475,15 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>460,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4333,12 +4501,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>7.5W</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4348,14 +4516,15 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>460,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4373,12 +4542,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>7.5W</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4388,14 +4557,15 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>460,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4413,12 +4583,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>7.5W</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4428,14 +4598,15 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>460,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4453,12 +4624,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>7.5W</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4468,14 +4639,15 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>460,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4493,29 +4665,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>8W</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>510,0</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>460,0</t>
-        </is>
-      </c>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4533,29 +4706,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>8W</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>510,0</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>460,0</t>
-        </is>
-      </c>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4573,29 +4747,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>8W</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>510,0</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>460,0</t>
-        </is>
-      </c>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4613,29 +4788,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>8W</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>510,0</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>460,0</t>
-        </is>
-      </c>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4658,12 +4834,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>460,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4673,9 +4849,10 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>460,0</t>
-        </is>
-      </c>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4693,17 +4870,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10.5W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4713,9 +4890,10 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>520,0</t>
-        </is>
-      </c>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4723,12 +4901,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DX5930-001</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4738,24 +4916,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>540,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>540,0</t>
-        </is>
-      </c>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4763,12 +4942,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DX5930-001</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4778,24 +4957,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>540,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>540,0</t>
-        </is>
-      </c>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4803,39 +4983,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DX5930-001</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>9.5W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>470,0</t>
-        </is>
-      </c>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4843,29 +5024,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DX5930-001</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>10W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>480,0</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>Alias</t>
@@ -4873,9 +5054,10 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4883,27 +5065,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Rose Whisper (W)</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DD1503-118</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4913,9 +5095,10 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>500,0</t>
-        </is>
-      </c>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4923,39 +5106,40 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DO9457-100</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6.5W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>620,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>560,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>620,0</t>
-        </is>
-      </c>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4963,39 +5147,40 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DO9457-100</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>7.5W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>580,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>550,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>StockX</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>580,0</t>
-        </is>
-      </c>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5003,39 +5188,40 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>520,0</t>
-        </is>
-      </c>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -5043,39 +5229,40 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>10.5W</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>510,0</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>520,0</t>
-        </is>
-      </c>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -5083,39 +5270,40 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DX5930-001</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>9.5W</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>520,0</t>
-        </is>
-      </c>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -5123,39 +5311,40 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DX5930-001</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>10W</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>520,0</t>
-        </is>
-      </c>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -5163,17 +5352,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DD1391-100</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5183,19 +5372,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
           <t>520,0</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>StockX/Alias</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>520,0</t>
-        </is>
-      </c>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -5203,39 +5393,40 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DD1391-100</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>580,0</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>520,0</t>
-        </is>
-      </c>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -5243,39 +5434,40 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>CW1590-100</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>5Y</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>350,0</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>400,0</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>520,0</t>
-        </is>
-      </c>
+          <t>400,0</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -5283,27 +5475,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>CW1590-100</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>5.5Y</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5313,9 +5505,10 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>520,0</t>
-        </is>
-      </c>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -5323,39 +5516,40 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>CW1590-100</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>6Y</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>460,0</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>StockX/Alias</t>
+          <t>StockX</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>520,0</t>
-        </is>
-      </c>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -5363,27 +5557,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (W)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DD1503-101</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>10W</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5393,9 +5587,10 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>520,0</t>
-        </is>
-      </c>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -5403,469 +5598,245 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (W)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DD1503-101</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>10W</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Rose Whisper (W)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>DD1503-118</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>760,0</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>760,0</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
           <t>520,0</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>520,0</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>adidas Forum Low The Grinch</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>HP6772</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>StockX/Alias</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>520,0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Product_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>StockX_payout</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Alias_payout</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Best_site</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Best_price</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Additional_sites</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CW1590-100</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5Y</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>390,0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>420,0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>420,0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CW1590-100</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6Y</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>460,0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>450,0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>StockX</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>460,0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>CW1590-100</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.5Y</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>480,0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>480,0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>StockX/Alias</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>480,0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>DD1391-100</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>580,0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>550,0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>StockX</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>580,0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>554724-174</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>500,0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>630,0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>630,0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jordan 1 Low Stealth French Blue (W)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DC0774-042</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11W</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>580,0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>580,0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>StockX/Alias</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>580,0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low Light Orewood Brown Sashiko</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DV0834-100</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.5</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>640,0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>570,0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>StockX</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>640,0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Jordan 1 Mid Olive Toe (W)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>DV0427-301</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7W</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>620,0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>670,0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>670,0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>DO9457-100</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.5W</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>620,0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>560,0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>StockX</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>620,0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/prices.xlsx
+++ b/output/prices.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="flip" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hold" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expected" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +20,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,4 +438,6692 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>StockX_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Alias_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Best_site</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Additional_sites</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Black Gum</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DB3021</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>471,1357679999999</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>663,010446174</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>663,010446174</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Black Gum</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DB3021</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>471,1357679999999</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>663,010446174</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>663,010446174</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Black Gum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DB3021</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>471,1357679999999</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>663,010446174</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>663,010446174</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Black Gum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DB3021</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>471,1357679999999</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>663,010446174</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>663,010446174</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Black Gum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DB3021</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>471,1357679999999</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>663,010446174</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>663,010446174</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Black Gum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DB3021</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>425,541984</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>459,2862140099999</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>459.2862140099999</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Black Gum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DB3021</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>417,786833384</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Klekt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Green Toe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>553558-371</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>881,4798239999999</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>885,5980331679999</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>885.5980331679999</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Klekt/Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Stealth French Blue (Women's)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DC0774-042</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>661,109868</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>561,1483300919999</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>661.109868</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Klekt/Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Stealth French Blue (Women's)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DC0774-042</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.5W</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>581,320746</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>696,9644848679999</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>696.9644848679999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Stealth French Blue (Women's)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DC0774-042</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>683,9067599999998</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>663,010446174</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>683.9067599999998</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid Olive Toe (Women's)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DV0427-301</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>566,122818</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>666,7831171400001</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>666.7831171400001</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid Olive Toe (Women's)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DV0427-301</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>566,122818</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>666,7831171400001</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>666.7831171400001</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid Olive Toe (Women's)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DV0427-301</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>653,510904</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>663,010446174</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>663,010446174</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>554724-174</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>471,1357679999999</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>587,5570268539999</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>587.5570268539999</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>554724-174</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>490,13317799999993</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>610,19305265</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>610.19305265</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Klekt/Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jordan 1 Retro High OG Gorge Green</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DZ5485-303</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1041,0580679999998</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1108,185620162</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1108.185620162</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Klekt/Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Championship White Red</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DD1399-106</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>566,122818</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>659,237775208</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>659.237775208</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (Women's)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>657,3103859999999</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>580,0116849219999</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>657.3103859999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (Women's)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>657,3103859999999</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>580,0116849219999</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>657.3103859999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (Women's)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>657,3103859999999</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>580,0116849219999</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>657.3103859999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (Women's)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>657,3103859999999</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>580,0116849219999</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>657.3103859999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>455,93784</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>455.93784</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>455,93784</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>455.93784</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>455,93784</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>455.93784</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>455,93784</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>455.93784</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Peach Cream (Women's)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DD1503-801</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12W</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>585,1202279999999</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>663,010446174</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>663,010446174</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Phantom Metallic Gold (Women's)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DX5930-001</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>562,3233359999999</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>534,7396333300001</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>562.3233359999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Phantom Metallic Gold (Women's)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DX5930-001</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>562,3233359999999</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>534,7396333300001</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>562.3233359999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>486,333696</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>546,057646228</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>546,057646228</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>486,333696</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>455,513543044</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>486.333696</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (Women's)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>596,5186739999999</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>670,555788106</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>670.555788106</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (Women's)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>581,320746</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>655,4651042419999</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>655.4651042419999</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (Women's)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>581,320746</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>655,4651042419999</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>655.4651042419999</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (Women's)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>607,91712</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>561,1483300919999</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>607.91712</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Klekt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (Women's)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10W</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>854,8834499999999</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>855,41666544</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>855.41666544</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Summit White Midnight Navy</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>FD9749-400</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>573,721782</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>530,966962364</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>573.721782</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Klekt/Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Terry Swoosh (Women's)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DZ4706-200</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.5W</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>801,6907019999999</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>696,9644848679999</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>801.6907019999999</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>459,737322</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>519,6489494659999</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>519.6489494659999</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>UGG Classic Ultra Mini Platform Black (Women's)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1135092-BLK</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>737,0995079999999</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>737,0995079999999</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>StockX_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Alias_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Best_site</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Additional_sites</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid Olive Toe (Women's)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DV0427-301</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>566,122818</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>636,6017494119999</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>636.6017494119999</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jordan 1 Retro High OG Starfish (Women's)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DO9369-101</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>611,7166019999999</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>730,9185235619999</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>730.9185235619999</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jordan 1 Retro High OG Starfish (Women's)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DO9369-101</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>611,7166019999999</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>730,9185235619999</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>730.9185235619999</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jordan 1 Retro High OG Starfish (Women's)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DO9369-101</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>611,7166019999999</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>730,9185235619999</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>730.9185235619999</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jordan 3 Retro White Cement Reimagined</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DN3707-100</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>995,4642839999998</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>900,6887170319999</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>995.4642839999998</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (Women's)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>463,53680399999996</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>459,2862140099999</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>463.53680399999996</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Klekt/Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (Women's)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>463,53680399999996</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>474,376897874</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>474.376897874</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Orewood Brown Sashiko</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DV0834-100</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.5</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>554,724372</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>542,284975262</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>554.724372</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (Women's)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>497,7321419999999</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>455,513543044</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>497.7321419999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (Women's)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>497,7321419999999</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>455,513543044</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>497.7321419999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Pink Velvet (GS)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DO6485-600</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4Y</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>433,140948</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>433.140948</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Pink Velvet (GS)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DO6485-600</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.5Y</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>425,33217531599996</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>520,5290339999999</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>519,6489494659999</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>520.5290339999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>455,93784</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>489,4675817379999</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>489.4675817379999</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>455,93784</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>489,4675817379999</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>489.4675817379999</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>455,93784</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>489,4675817379999</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>489.4675817379999</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>467,336286</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>481,922239806</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>481.922239806</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>467,336286</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>481,922239806</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>481.922239806</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>490,13317799999993</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>490,13317799999993</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>490,13317799999993</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>490,13317799999993</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>486,333696</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>546,057646228</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>546,057646228</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>486,333696</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>546,057646228</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>546,057646228</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>490,13317799999993</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>523,4216204319999</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>523.4216204319999</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>490,13317799999993</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>523,4216204319999</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>523.4216204319999</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>490,13317799999993</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>523,4216204319999</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>523.4216204319999</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>512,9300699999999</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>546,057646228</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>546,057646228</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>501,5316239999999</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>519,6489494659999</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>519.6489494659999</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6Y</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>425,541984</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>429.1048462819999</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>455,93784</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>444,195530146</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>455.93784</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>455,93784</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>444,195530146</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>455.93784</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>455,93784</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>444,195530146</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>455.93784</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>455,93784</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>444,195530146</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>455.93784</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>455,93784</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>444,195530146</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>455.93784</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>444,195530146</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>444,195530146</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>444,195530146</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>444,195530146</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>444,195530146</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>444,195530146</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>444,195530146</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>444,195530146</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>444,195530146</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>425,33217531599996</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>425,33217531599996</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>425,33217531599996</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>425,33217531599996</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>425,33217531599996</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>425,33217531599996</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>447,968201112</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>447,968201112</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>447,968201112</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>447,968201112</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>447,968201112</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>447,968201112</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>447,968201112</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>447,968201112</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>447,968201112</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>447,968201112</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>447,968201112</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>482,53421399999996</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>478,14956884</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>482.53421399999996</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>482,53421399999996</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>478,14956884</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>482.53421399999996</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>482,53421399999996</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>478,14956884</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>482.53421399999996</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>482,53421399999996</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>478,14956884</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>482.53421399999996</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>470,60422690799993</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>470,60422690799993</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>470,60422690799993</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>470,60422690799993</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>10W</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>490,13317799999993</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>485,6949107719999</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>490.13317799999993</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10W</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>490,13317799999993</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>485,6949107719999</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>490.13317799999993</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Pure Platinum</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DV0831-101</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>471,1357679999999</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>481,922239806</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>481.922239806</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Pure Platinum</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DV0831-101</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>467,336286</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>436,650188214</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>467.336286</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE Sand Drift (Women's)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>FD0873-126</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>10.5W</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>505,3311059999999</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>447,968201112</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>505.3311059999999</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE Sand Drift (Women's)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>FD0873-126</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>520,5290339999999</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>432,87751724799995</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>520.5290339999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE Sand Drift (Women's)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>FD0873-126</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>520,5290339999999</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>432,87751724799995</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>520.5290339999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Terry Swoosh (Women's)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DZ4706-200</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>455,93784</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>527,1942913979999</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>527.1942913979999</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Terry Swoosh (Women's)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DZ4706-200</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>455,93784</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>527,1942913979999</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>527.1942913979999</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Terry Swoosh (Women's)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>DZ4706-200</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>436,94042999999994</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>440,42285918</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>440.42285918</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Two-Toned Grey (GS)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>DH9765-001</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4Y</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>341,9533799999999</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>334,78807213199997</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>341.9533799999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Two-Toned Grey (GS)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>DH9765-001</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>429,34146599999997</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>429.34146599999997</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>adidas Forum Low The Grinch</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>HP6772</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>296,359596</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>481,922239806</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>481.922239806</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Wethenew/Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>425,33217531599996</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>440,73991199999995</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>463,05888497599994</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>463,05888497599994</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>440,73991199999995</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>349,878755996</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>440.73991199999995</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>440,73991199999995</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>349,878755996</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>440.73991199999995</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan Black Gum</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>H01878</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>440,73991199999995</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>440.73991199999995</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan Black Gum</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>H01878</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>440,73991199999995</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>440.73991199999995</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan Black Gum</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>H01878</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>440,73991199999995</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>440.73991199999995</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan Black Gum</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>H01878</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>440,73991199999995</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>440.73991199999995</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan White Gum</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>H01877</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>459,737322</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>459.737322</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan White Gum</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>H01877</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>459,737322</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>459.737322</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan White Gum</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>H01877</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>459,737322</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>459.737322</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan White Gum</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>H01877</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>459,737322</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>459.737322</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan White Gum</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>H01877</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>459,737322</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>459.737322</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan White Gum</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>H01877</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>459,737322</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>459.737322</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan White Gum</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>H01877</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>459,737322</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>459.737322</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan White Gum</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>H01877</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>459,737322</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>459.737322</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan White Gum</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>H01877</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>459,737322</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>459.737322</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan White Gum</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>H01877</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>459,737322</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>429,1048462819999</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>459.737322</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Grey</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>BB550PB1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>470,60422690799993</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Grey</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>BB550PB1</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>474,93524999999994</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>470,60422690799993</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>474.93524999999994</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>StockX_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Alias_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Best_site</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Additional_sites</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>490,13317799999993</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>490,13317799999993</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>490,13317799999993</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>490,13317799999993</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>490,13317799999993</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>497,0129236699999</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nike SB Dunk Low Pro Fly Streetwear Gardenia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DQ5130-400</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>942,2715359999999</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>908,2340589639999</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>942.2715359999999</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Black Rain Cloud (GS)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GSB550CA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>463,53680399999996</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>361,196768894</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>463.53680399999996</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>417,786833384</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>417,786833384</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>417,786833384</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>417,786833384</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>448,3388759999999</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>417,786833384</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>448.3388759999999</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Plum Coconut Milk (Women's)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FJ4734-100</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>566,122818</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>530,966962364</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>566.122818</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Black Rain Cloud (GS)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>GSB550CA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>391,34664599999996</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>323,47005923399996</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>391.34664599999996</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Klekt/Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Plum Coconut Milk (Women's)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FJ4734-100</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>630,7140119999999</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>530,966962364</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>630.7140119999999</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Plum Coconut Milk (Women's)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>FJ4734-100</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>630,7140119999999</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>527,1942913979999</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>630.7140119999999</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/output/prices.xlsx
+++ b/output/prices.xlsx
@@ -1,40 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/priceChecker/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF408EEE-76A9-ED45-866B-665FB813A5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="flip" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+  <si>
+    <t>Product_name</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>StockX_payout</t>
+  </si>
+  <si>
+    <t>Alias_payout</t>
+  </si>
+  <si>
+    <t>Best_site</t>
+  </si>
+  <si>
+    <t>Best_price</t>
+  </si>
+  <si>
+    <t>Additional_sites</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low Green Toe</t>
+  </si>
+  <si>
+    <t>553558-371</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>994,8662009999998</t>
+  </si>
+  <si>
+    <t>871,7566961639999</t>
+  </si>
+  <si>
+    <t>StockX</t>
+  </si>
+  <si>
+    <t>Klekt/Sneakit/</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low Stealth French Blue (Women's)</t>
+  </si>
+  <si>
+    <t>DC0774-042</t>
+  </si>
+  <si>
+    <t>9.5W</t>
+  </si>
+  <si>
+    <t>624,5964495000001</t>
+  </si>
+  <si>
+    <t>552,377936691</t>
+  </si>
+  <si>
+    <t>StockX/Alias</t>
+  </si>
+  <si>
+    <t>Klekt/Hypeboost/StockX/</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Light Iron Ore (Women's)</t>
+  </si>
+  <si>
+    <t>DQ7576-001</t>
+  </si>
+  <si>
+    <t>11W</t>
+  </si>
+  <si>
+    <t>673,2177299999998</t>
+  </si>
+  <si>
+    <t>700,926196911</t>
+  </si>
+  <si>
+    <t>Alias/</t>
+  </si>
+  <si>
+    <t>Sneakit/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,85 +144,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,19 +469,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/output/prices.xlsx
+++ b/output/prices.xlsx
@@ -1,142 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/priceChecker/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF408EEE-76A9-ED45-866B-665FB813A5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="flip" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
-  <si>
-    <t>Product_name</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>StockX_payout</t>
-  </si>
-  <si>
-    <t>Alias_payout</t>
-  </si>
-  <si>
-    <t>Best_site</t>
-  </si>
-  <si>
-    <t>Best_price</t>
-  </si>
-  <si>
-    <t>Additional_sites</t>
-  </si>
-  <si>
-    <t>Jordan 1 Low Green Toe</t>
-  </si>
-  <si>
-    <t>553558-371</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>994,8662009999998</t>
-  </si>
-  <si>
-    <t>871,7566961639999</t>
-  </si>
-  <si>
-    <t>StockX</t>
-  </si>
-  <si>
-    <t>Klekt/Sneakit/</t>
-  </si>
-  <si>
-    <t>Jordan 1 Low Stealth French Blue (Women's)</t>
-  </si>
-  <si>
-    <t>DC0774-042</t>
-  </si>
-  <si>
-    <t>9.5W</t>
-  </si>
-  <si>
-    <t>624,5964495000001</t>
-  </si>
-  <si>
-    <t>552,377936691</t>
-  </si>
-  <si>
-    <t>StockX/Alias</t>
-  </si>
-  <si>
-    <t>Klekt/Hypeboost/StockX/</t>
-  </si>
-  <si>
-    <t>Nike Dunk Low Light Iron Ore (Women's)</t>
-  </si>
-  <si>
-    <t>DQ7576-001</t>
-  </si>
-  <si>
-    <t>11W</t>
-  </si>
-  <si>
-    <t>673,2177299999998</t>
-  </si>
-  <si>
-    <t>700,926196911</t>
-  </si>
-  <si>
-    <t>Alias/</t>
-  </si>
-  <si>
-    <t>Sneakit/</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -144,44 +42,85 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,144 +408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/output/prices.xlsx
+++ b/output/prices.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="flip" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hold" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +19,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +47,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,4 +437,4644 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>StockX_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Alias_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Best_site</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Additional_sites</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adidas Gazelle Indoor Blue Fusion Gum (Women's)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HQ8717</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>583,6523669999999</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>615,48829434</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>583,6523669999999</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Klekt/Alias/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>adidas Gazelle Indoor Blue Fusion Gum (Women's)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>HQ8717</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>524,171871</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>619,1795925929999</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>619,1795925929999</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>adidas Gazelle Indoor Blue Fusion Gum (Women's)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>HQ8717</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>524,171871</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>619,1795925929999</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>619,1795925929999</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adidas Gazelle Indoor Blue Fusion Gum (Women's)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>HQ8717</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>524,171871</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>619,1795925929999</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>619,1795925929999</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>adidas Gazelle Indoor Blue Fusion Gum (Women's)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>HQ8717</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>524,171871</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>619,1795925929999</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>619,1795925929999</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Green Toe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>553558-371</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>988,8632459999998</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>866,4965755439999</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>866,4965755439999</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Klekt/Hypeboost/Sneakit/StockX/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Stealth French Blue (Women's)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DC0774-042</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>620,827677</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>549,044925786</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>549,044925786</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/Hypeboost/StockX/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Stealth French Blue (Women's)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DC0774-042</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.5W</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>568,782243</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>681,9316628939998</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>568,782243</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Wethenew/Hypeboost/Alias/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid Olive Toe (Women's)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DV0427-301</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>531,606933</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>641,327382111</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>531,606933</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Alias/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>554724-174</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>583,6523669999999</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>585,9579083159999</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>583,6523669999999</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Hypeboost/Alias/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jordan 1 Retro High OG Gorge Green</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DZ5485-303</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1104,1067069999997</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1084,2831724710002</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1084,2831724710002</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/Hypeboost/StockX/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Championship White Red</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DD1399-106</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>535,324464</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>645,0186803639999</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>535,324464</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Hypeboost/Alias/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (Women's)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>669,1555799999999</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>689,3142594</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>689,3142594</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (Women's)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>669,1555799999999</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>689,3142594</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>689,3142594</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (Women's)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>669,1555799999999</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>689,3142594</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>689,3142594</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (Women's)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>669,1555799999999</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>689,3142594</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>689,3142594</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>486,99656099999993</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>486,99656099999993</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>486,99656099999993</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>486,99656099999993</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>486,99656099999993</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>486,99656099999993</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>486,99656099999993</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>486,99656099999993</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Peach Cream (Women's)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DD1503-801</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12W</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>576,2173049999999</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>633,944785605</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>576,2173049999999</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Hypeboost/Sneakit/Alias/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Phantom Metallic Gold (Women's)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DX5930-001</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>535,324464</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>508,44064500299993</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>535,324464</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Phantom Metallic Gold (Women's)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DX5930-001</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>535,324464</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>508,44064500299993</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>535,324464</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (Women's)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>624,545208</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>622,870890846</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>622,870890846</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>StockX/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (Women's)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>609,675084</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>523,2058380149999</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>523,2058380149999</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>StockX/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (Women's)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>609,675084</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>523,2058380149999</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>523,2058380149999</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>StockX/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (Women's)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>579,934836</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>549,044925786</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>549,044925786</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>StockX/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (Women's)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10W</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>855,0321299999998</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>825,892294761</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>825,892294761</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>StockX/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Terry Swoosh (Women's)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DZ4706-200</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.5W</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>784,3990409999999</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>611,7969960869999</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>611,7969960869999</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Klekt/Hypeboost/StockX/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>adidas Forum Low The Grinch</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>HP6772</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>371,75309999999996</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>394,01039916</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>371,75309999999996</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Wethenew/Hypeboost/Alias/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan White Gum</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>H01877</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>472,12643699999995</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>434,61467994299994</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>472,12643699999995</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan White Gum</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>H01877</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>472,12643699999995</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>434,61467994299994</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>472,12643699999995</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan White Gum</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>H01877</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>472,12643699999995</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>434,61467994299994</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>472,12643699999995</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan White Gum</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>H01877</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>472,12643699999995</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>434,61467994299994</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>472,12643699999995</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan White Gum</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>H01877</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>472,12643699999995</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>434,61467994299994</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>472,12643699999995</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Grey</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BB550PB1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>438,66865799999994</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>464,145065967</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>464,145065967</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Grey</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BB550PB1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>438,66865799999994</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>464,145065967</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>464,145065967</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>StockX_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Alias_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Best_site</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Additional_sites</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Black Gum</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DB3021</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>405,210879</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>405,08429391899995</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>405,210879</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Black Gum</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DB3021</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>405,210879</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>405,08429391899995</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>405,210879</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Black Gum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DB3021</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>405,210879</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>405,08429391899995</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>405,210879</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Black Gum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DB3021</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>405,210879</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>405,08429391899995</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>405,210879</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Black Gum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DB3021</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>405,210879</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>405,08429391899995</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>405,210879</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>412,64594099999994</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>456,76246946099997</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>412,64594099999994</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Klekt/Alias/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Stealth French Blue (Women's)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DC0774-042</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>535,324464</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>648,7099786169999</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>535,324464</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Hypeboost/Alias/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid Olive Toe (Women's)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DV0427-301</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>643,1328629999999</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>622,870890846</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>622,870890846</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>StockX/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>554724-174</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>479,5614989999999</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>574,8840135569999</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>574,8840135569999</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Sneakit/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Black Rain Cloud (GS)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GSB550CA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>323,42519699999997</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>353,4061183769999</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>323,42519699999997</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Black Rain Cloud (GS)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GSB550CA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>319,70766599999996</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>272,19755681099997</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>272,19755681099997</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Klekt/Sneakit/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (Women's)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>453,53878199999997</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>449,37987295499994</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>449,37987295499994</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Klekt/Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Pink Velvet (GS)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DO6485-600</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4Y</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>420,08100299999995</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>382,936504401</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>420,08100299999995</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Pink Velvet (GS)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DO6485-600</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.5Y</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>412,64594099999994</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>401,39299566599993</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>412,64594099999994</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Plum Coconut Milk (Women's)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FJ4734-100</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>498,1491539999999</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>486,2928554849999</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>498,1491539999999</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Plum Coconut Milk (Women's)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>FJ4734-100</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>475,84396799999996</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>456,76246946099997</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>475,84396799999996</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Hypeboost/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Plum Coconut Milk (Women's)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FJ4734-100</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>483,27903</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>482,60155723199995</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>483,27903</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Plum Coconut Milk (Women's)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FJ4734-100</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.5W</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>594,8049599999999</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>537,971031027</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>537,971031027</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Hypeboost/StockX/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Plum Coconut Milk (Women's)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FJ4734-100</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.5W</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>594,8049599999999</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>537,971031027</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>537,971031027</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Hypeboost/StockX/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>449,37987295499994</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>449,37987295499994</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>449,37987295499994</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>449,37987295499994</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>438,66865799999994</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>453,0711712079999</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>453,0711712079999</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>438,66865799999994</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>453,0711712079999</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>453,0711712079999</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>427,232083437</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>441,99727644899997</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>441,99727644899997</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>441,99727644899997</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>441,99727644899997</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>441,99727644899997</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>441,99727644899997</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>441,99727644899997</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>441,99727644899997</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>441,99727644899997</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>449,821251</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>446,10371999999995</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>441,99727644899997</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>446,10371999999995</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>453,53878199999997</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>438,305978196</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>453,53878199999997</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>453,53878199999997</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>438,305978196</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>453,53878199999997</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>453,53878199999997</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>438,305978196</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>453,53878199999997</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>453,53878199999997</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>438,305978196</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>453,53878199999997</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>453,53878199999997</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>438,305978196</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>453,53878199999997</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DD1391-100</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>453,53878199999997</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>438,305978196</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>453,53878199999997</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>438,66865799999994</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>416,15818867799993</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>438,66865799999994</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>438,66865799999994</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>416,15818867799993</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>438,66865799999994</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>438,66865799999994</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>416,15818867799993</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>438,66865799999994</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>438,66865799999994</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>416,15818867799993</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>438,66865799999994</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>438,66865799999994</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>416,15818867799993</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>438,66865799999994</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>423,54078518399996</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Sneakit/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>423,54078518399996</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Sneakit/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>423,54078518399996</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Sneakit/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>423,54078518399996</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Sneakit/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>423,54078518399996</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Sneakit/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>423,54078518399996</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Sneakit/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>423,54078518399996</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Sneakit/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DD1503-101</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>423,54078518399996</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>431,233596</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Sneakit/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Two-Toned Grey (GS)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DH9765-001</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>419,849486931</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>416,363472</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>379,24520614799997</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>416,363472</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>416,363472</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>368,171311389</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>416,363472</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>416,363472</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>368,171311389</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>416,363472</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan Black Gum</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>H01878</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>419,849486931</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan Black Gum</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>H01878</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>419,849486931</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan Black Gum</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>H01878</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>419,849486931</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan Black Gum</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>H01878</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>419,849486931</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>423,79853399999996</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Wethenew/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan Black Gum</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>H01878</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>408,92840999999993</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>441,99727644899997</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>441,99727644899997</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>adidas Samba Vegan Black Gum</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>H01878</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>408,92840999999993</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>441,99727644899997</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>441,99727644899997</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>